--- a/Komfovent_Ventilation/SampleData.xlsx
+++ b/Komfovent_Ventilation/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI5"/>
+  <dimension ref="A1:BI8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1995,6 +1995,927 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2022-01-14 11:30:27</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>17.6 °C</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>24.0 °C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.1 °C</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>23.8 °C</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>30 %</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>66 %</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>9.02 g/m³</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>17.3 °C</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>24.0 °C</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>3.2 °C</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>30 %</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>987 W</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>2.82 kWh</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>281.37 kWh</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>2652.40 kWh</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>2.52 kWh</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>259.50 kWh</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>2105.08 kWh</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>6.01 kWh</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>655.87 kWh</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>8184.90 kWh</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>146030620</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2022-01-14 11:32:02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17.5 °C</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>23.9 °C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.2 °C</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>23.8 °C</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>30 %</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>66 %</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>9.02 g/m³</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>17.4 °C</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>24.0 °C</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>3.3 °C</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>30 %</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>993 W</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>2.84 kWh</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>281.38 kWh</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>2652.41 kWh</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>2.53 kWh</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>259.51 kWh</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>2105.09 kWh</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>6.03 kWh</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>655.90 kWh</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>8184.92 kWh</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2022-01-14 15:33:23</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17.4 °C</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.8 °C</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>24.1 °C</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>45 %</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>30 %</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>66 %</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>9.84 g/m³</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>17.4 °C</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>2.7 °C</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>30 %</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>1025 W</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>4.90 kWh</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>283.44 kWh</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>2654.48 kWh</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>4.45 kWh</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>261.43 kWh</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>2107.01 kWh</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>10.00 kWh</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>659.87 kWh</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>8188.89 kWh</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>45 %</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>45 %</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Komfovent_Ventilation/SampleData.xlsx
+++ b/Komfovent_Ventilation/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI8"/>
+  <dimension ref="A1:BI9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -2916,6 +2916,313 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022-01-14 17:51:16</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>17.6 °C</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>23.9 °C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.8 °C</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>24.0 °C</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>30 %</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>66 %</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>9.56 g/m³</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>17.6 °C</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>23.8 °C</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>2.7 °C</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>30 %</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>1009 W</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>538 W</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>6.14 kWh</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>284.68 kWh</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>2655.71 kWh</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>5.60 kWh</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>262.58 kWh</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>2108.16 kWh</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>12.35 kWh</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>662.22 kWh</t>
+        </is>
+      </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>8191.24 kWh</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>44 %</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Komfovent_Ventilation/SampleData.xlsx
+++ b/Komfovent_Ventilation/SampleData.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI9"/>
+  <dimension ref="A1:BI12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -3223,6 +3223,927 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2022-01-15 10:43:35</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>17.9 °C</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>24.6 °C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.4 °C</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>23.3 °C</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>30 %</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>67 %</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>8.77 g/m³</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>17.9 °C</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>24.7 °C</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>3.4 °C</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>30 %</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>1019 W</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>2.54 kWh</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>285.52 kWh</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>2660.74 kWh</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>2.26 kWh</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>263.69 kWh</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>2112.71 kWh</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>5.70 kWh</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>655.87 kWh</t>
+        </is>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>8201.72 kWh</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>42 %</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2022-01-15 18:01:02</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>15.8 °C</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>24.6 °C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.6 °C</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>24.2 °C</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>30 %</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>69 %</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>9.46 g/m³</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>15.9 °C</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>24.4 °C</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0.7 °C</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>30 %</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>1153 W</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>538 W</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>5.98 kWh</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>288.96 kWh</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>2664.18 kWh</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>5.43 kWh</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>266.86 kWh</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>2115.88 kWh</t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>12.98 kWh</t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>663.14 kWh</t>
+        </is>
+      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>8209.00 kWh</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>43 %</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2022-01-16 11:00:32</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>16.6 °C</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>24.5 °C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.5 °C</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>23.5 °C</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>**.* °C</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>**.* %</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0 mV</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>**.* mV</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>31 %</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>68 %</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>#.## g/m³</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>8.44 g/m³</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>7:00-22:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>AWAY              22:00</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>16.7 °C</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>24.5 °C</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>1.7 °C</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>31 %</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>90 %</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>1100 W</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>537 W</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>500 W</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>2.87 kWh</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>288.72 kWh</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>2669.60 kWh</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>2.58 kWh</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>266.88 kWh</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>2120.82 kWh</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>6.47 kWh</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>656.55 kWh</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>8220.61 kWh</t>
+        </is>
+      </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>19.0 °C</t>
+        </is>
+      </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>--.- °C</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>--.- %</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>40 %</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>144982044</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
